--- a/Test-Case-Report.xlsx
+++ b/Test-Case-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA Class\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA-course(mahmudul)\7.12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90643C3-9AE9-4F90-B310-715A0FB2FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494FF7D-7FAE-4276-9F98-120DFD637181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>108.0.5359.94(64-bit)</t>
   </si>
   <si>
-    <t>LOGO</t>
-  </si>
-  <si>
     <t>Test Case Templete</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Email and Password field dispayed proper placeholder</t>
+  </si>
+  <si>
+    <t>LOGOs</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,14 +473,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,10 +494,19 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,15 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -904,7 +903,7 @@
       <pane xSplit="8" ySplit="11" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,43 +920,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -965,20 +964,20 @@
       <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -986,41 +985,41 @@
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1028,30 +1027,30 @@
       <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12" t="s">
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1084,113 +1083,113 @@
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1404,37 +1403,37 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
